--- a/TFG/target/excel/excelANTIGUO.xlsx
+++ b/TFG/target/excel/excelANTIGUO.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>configuracion</t>
   </si>
   <si>
-    <t>get</t>
+    <t>post</t>
   </si>
   <si>
-    <t>post</t>
+    <t>get</t>
   </si>
   <si>
     <t>entrada</t>
@@ -32,31 +32,31 @@
     <t>sumando1</t>
   </si>
   <si>
-    <t>restando1</t>
+    <t>valor1</t>
   </si>
   <si>
-    <t>valor1</t>
+    <t>restando1</t>
   </si>
   <si>
     <t>sumando2</t>
   </si>
   <si>
-    <t>salida</t>
+    <t>valor2</t>
   </si>
   <si>
     <t>restando2</t>
   </si>
   <si>
-    <t>valor2</t>
+    <t>valor3</t>
+  </si>
+  <si>
+    <t>salida</t>
+  </si>
+  <si>
+    <t>valor4</t>
   </si>
   <si>
     <t>gastoTotal</t>
-  </si>
-  <si>
-    <t>valor3</t>
-  </si>
-  <si>
-    <t>valor4</t>
   </si>
   <si>
     <t>body</t>
@@ -68,9 +68,6 @@
     <t>tomas</t>
   </si>
   <si>
-    <t>marcos</t>
-  </si>
-  <si>
     <t>dinero</t>
   </si>
 </sst>
@@ -78,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -107,14 +104,6 @@
       <color rgb="FF6666FF"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="9">
     <fill>
@@ -202,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -224,33 +213,24 @@
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -518,26 +498,26 @@
       <c r="C3" s="5">
         <v>1.0</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
+      <c r="A4" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="11">
         <f>C2+C3</f>
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="E7" s="15"/>
@@ -1567,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1577,12 +1557,12 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6">
         <v>2.0</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -1594,20 +1574,20 @@
       <c r="C3" s="6">
         <v>1.0</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
+      <c r="A4" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12">
         <f>C2-C3</f>
         <v>1</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1629,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1638,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6">
         <v>5.0</v>
@@ -1649,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6">
         <v>2.0</v>
@@ -1660,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6">
         <v>1.0</v>
@@ -1671,18 +1651,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
+      <c r="A6" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="12">
         <f>(C2/4)*C3+C4*C5</f>
@@ -1709,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1718,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6">
         <v>5.0</v>
@@ -1740,18 +1720,18 @@
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
+      <c r="A5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="11">
         <v>5.0</v>
@@ -1777,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1791,38 +1771,26 @@
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="16">
-        <v>80.0</v>
-      </c>
-      <c r="D3" s="16">
-        <v>20.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>15.0</v>
+      <c r="C3" s="5">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
+      <c r="A4" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="18">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
         <v>5.0</v>
       </c>
     </row>
